--- a/detector/Calibration.xlsx
+++ b/detector/Calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timoh\Documents\Projects\DraadDetectinator\detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C93C4A2-5578-4205-9E21-34D202724962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC00C5-7389-4B64-A622-C498601DBD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{65127FF5-2757-4D0F-B346-E7D0535F1772}"/>
+    <workbookView xWindow="1512" yWindow="1092" windowWidth="21624" windowHeight="11244" xr2:uid="{65127FF5-2757-4D0F-B346-E7D0535F1772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>3 aan</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>2,3 aan</t>
+  </si>
+  <si>
+    <t>2,3,4 aan</t>
+  </si>
+  <si>
+    <t>1,2,3,4 aan</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 aan</t>
   </si>
 </sst>
 </file>
@@ -399,97 +408,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50046AD5-6B24-4D0E-B612-0420FFB744CE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>1.3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>1.28</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1.25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1.23</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1.2</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.17</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>0.85</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1.22</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1.2</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.16</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1.21</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.45</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>1.19</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0.37</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1.08</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>1.18</v>
+      </c>
+      <c r="M8">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0.98</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0.78</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0.65</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>1.07</v>
+      </c>
+      <c r="M11">
+        <v>24</v>
+      </c>
+      <c r="N11">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>1.01</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0.48</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>0.94</v>
+      </c>
+      <c r="M13">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0.41</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>0.85</v>
+      </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>0.85</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>0.31</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>0.79</v>
+      </c>
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>0.72</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>0.65</v>
+      </c>
+      <c r="M18">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>0.18</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>0.53</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>0.17</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>0.48</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>0.16</v>
+      </c>
+      <c r="J22">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>0.45</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.13</v>
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23">
+        <v>0.41</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>0.35</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>26</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>0.25</v>
+      </c>
+      <c r="M27">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>29</v>
+      </c>
+      <c r="K28">
+        <v>0.2</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>0.2</v>
+      </c>
+      <c r="M29">
+        <v>42</v>
+      </c>
+      <c r="N29">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>44</v>
+      </c>
+      <c r="N31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>45</v>
+      </c>
+      <c r="N32">
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
